--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agencies" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +46,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,312 +435,324 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Department of Agriculture</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>$2.7B</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Agency</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Department of Commerce</t>
+          <t>Department of Agriculture</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$2.8B</t>
+          <t>$2.7B</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Department of Defense</t>
+          <t>Department of Commerce</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$36B</t>
+          <t>$2.8B</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Department of Health and Human Services</t>
+          <t>Department of Defense</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$7.0B</t>
+          <t>$36B</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Department of the Interior</t>
+          <t>Department of Health and Human Services</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$1.5B</t>
+          <t>$7.0B</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Department of Justice</t>
+          <t>Department of the Interior</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$3.1B</t>
+          <t>$1.5B</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Department of Labor</t>
+          <t>Department of Justice</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$819M</t>
+          <t>$3.1B</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Department of State</t>
+          <t>Department of Labor</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$2.6B</t>
+          <t>$819M</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Department of the Treasury</t>
+          <t>Department of State</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$5.4B</t>
+          <t>$2.6B</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Social Security Administration</t>
+          <t>Department of the Treasury</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$2.0B</t>
+          <t>$5.4B</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Department of Education</t>
+          <t>Social Security Administration</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$1.0B</t>
+          <t>$2.0B</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Department of Energy</t>
+          <t>Department of Education</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$3.1B</t>
+          <t>$1.0B</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Environmental Protection Agency</t>
+          <t>Department of Energy</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$385M</t>
+          <t>$3.1B</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Department of Transportation</t>
+          <t>Environmental Protection Agency</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$3.5B</t>
+          <t>$385M</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>General Services Administration</t>
+          <t>Department of Transportation</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$765M</t>
+          <t>$3.5B</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Department of Homeland Security</t>
+          <t>General Services Administration</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$7.4B</t>
+          <t>$765M</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Department of Housing and Urban Development</t>
+          <t>Department of Homeland Security</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$447M</t>
+          <t>$7.4B</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>National Aeronautics and Space Administration</t>
+          <t>Department of Housing and Urban Development</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$2.2B</t>
+          <t>$447M</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Office of Personnel Management</t>
+          <t>National Aeronautics and Space Administration</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$125M</t>
+          <t>$2.2B</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Small Business Administration</t>
+          <t>Office of Personnel Management</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$129M</t>
+          <t>$125M</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Department of Veterans Affairs</t>
+          <t>Small Business Administration</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>$129M</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>U.S. Agency for International Development</t>
+          <t>Department of Veterans Affairs</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$256M</t>
+          <t>$9.1B</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>U.S. Army Corps of Engineers</t>
+          <t>U.S. Agency for International Development</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$275M</t>
+          <t>$256M</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>National Archives and Records Administration</t>
+          <t>U.S. Army Corps of Engineers</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$99.9M</t>
+          <t>$275M</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>National Archives and Records Administration</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$136M</t>
+          <t>$99.9M</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>$136M</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Nuclear Regulatory Commission</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>$141M</t>
         </is>
@@ -754,37 +778,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>UII</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Bureau</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Investment Title</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total FY2021 Spending ($M)</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CIO Rating</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t># of Projects</t>
         </is>
